--- a/BANK.xlsx
+++ b/BANK.xlsx
@@ -2265,9 +2265,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>District</t>
-  </si>
-  <si>
     <t>Province</t>
   </si>
   <si>
@@ -2308,6 +2305,9 @@
   </si>
   <si>
     <t>Tel</t>
+  </si>
+  <si>
+    <t>distacne</t>
   </si>
 </sst>
 </file>
@@ -2702,45 +2702,45 @@
         <v>747</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>751</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>752</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
@@ -2782,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>7</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>7</v>
@@ -2842,7 +2842,7 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>13</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>7</v>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>19</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>7</v>
@@ -2940,7 +2940,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
@@ -2982,7 +2982,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>7</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>29</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>7</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>34</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>7</v>
@@ -3093,7 +3093,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>40</v>
@@ -3135,7 +3135,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>7</v>
@@ -3144,7 +3144,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>47</v>
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>7</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>54</v>
@@ -3229,7 +3229,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>7</v>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>61</v>
@@ -3276,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>66</v>
@@ -3285,7 +3285,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>67</v>
@@ -3327,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>74</v>
@@ -3336,7 +3336,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>75</v>
@@ -3378,7 +3378,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>79</v>
@@ -3387,7 +3387,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>80</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>79</v>
@@ -3438,7 +3438,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>85</v>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>79</v>
@@ -3489,7 +3489,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>90</v>
@@ -3527,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>94</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>95</v>
@@ -3578,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>79</v>
@@ -3587,7 +3587,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>100</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>79</v>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>104</v>
@@ -3680,7 +3680,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>79</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>108</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>79</v>
@@ -3740,7 +3740,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>113</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>79</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>118</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>79</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>122</v>
@@ -3884,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>79</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>127</v>
@@ -3935,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>79</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>132</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>79</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>137</v>
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>79</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>142</v>
@@ -4088,7 +4088,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>79</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>146</v>
@@ -4139,7 +4139,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>79</v>
@@ -4148,7 +4148,7 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>151</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>79</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>156</v>
@@ -4241,7 +4241,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>79</v>
@@ -4250,7 +4250,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>160</v>
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>79</v>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>165</v>
@@ -4343,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>79</v>
@@ -4352,7 +4352,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>170</v>
@@ -4394,7 +4394,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>79</v>
@@ -4403,7 +4403,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>175</v>
@@ -4445,7 +4445,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>79</v>
@@ -4454,7 +4454,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>181</v>
@@ -4496,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>79</v>
@@ -4505,7 +4505,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>186</v>
@@ -4547,7 +4547,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>192</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>193</v>
@@ -4598,7 +4598,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>74</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>198</v>
@@ -4645,7 +4645,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>203</v>
@@ -4654,7 +4654,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>204</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>208</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>209</v>
@@ -4739,7 +4739,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>214</v>
@@ -4748,7 +4748,7 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>215</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>221</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>222</v>
@@ -4841,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>227</v>
@@ -4850,7 +4850,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>228</v>
@@ -4892,7 +4892,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>227</v>
@@ -4901,7 +4901,7 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>232</v>
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>227</v>
@@ -4952,7 +4952,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>236</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>227</v>
@@ -5003,7 +5003,7 @@
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>242</v>
@@ -5045,7 +5045,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>79</v>
@@ -5054,7 +5054,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>248</v>
@@ -5096,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>79</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>252</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>257</v>
@@ -5152,7 +5152,7 @@
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>258</v>
@@ -5190,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>257</v>
@@ -5199,7 +5199,7 @@
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>263</v>
@@ -5237,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>257</v>
@@ -5246,7 +5246,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>268</v>
@@ -5288,7 +5288,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>79</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>273</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>192</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>278</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>192</v>
@@ -5395,7 +5395,7 @@
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>284</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>192</v>
@@ -5446,7 +5446,7 @@
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>291</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>79</v>
@@ -5497,7 +5497,7 @@
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>296</v>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>79</v>
@@ -5548,7 +5548,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>300</v>
@@ -5586,16 +5586,16 @@
         <v>0</v>
       </c>
       <c r="O58" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P58" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q58" s="2"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>304</v>
@@ -5633,16 +5633,16 @@
         <v>0</v>
       </c>
       <c r="O59" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P59" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>309</v>
@@ -5680,16 +5680,16 @@
         <v>0</v>
       </c>
       <c r="O60" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P60" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q60" s="2"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>313</v>
@@ -5727,16 +5727,16 @@
         <v>0</v>
       </c>
       <c r="O61" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P61" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q61" s="2"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>317</v>
@@ -5774,16 +5774,16 @@
         <v>0</v>
       </c>
       <c r="O62" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P62" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q62" s="2"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>321</v>
@@ -5821,16 +5821,16 @@
         <v>0</v>
       </c>
       <c r="O63" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P63" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q63" s="2"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>326</v>
@@ -5868,16 +5868,16 @@
         <v>0</v>
       </c>
       <c r="O64" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P64" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q64" s="2"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>332</v>
@@ -5915,16 +5915,16 @@
         <v>0</v>
       </c>
       <c r="O65" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P65" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q65" s="2"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>338</v>
@@ -5962,16 +5962,16 @@
         <v>0</v>
       </c>
       <c r="O66" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q66" s="2"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>343</v>
@@ -6009,16 +6009,16 @@
         <v>0</v>
       </c>
       <c r="O67" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q67" s="2"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>348</v>
@@ -6056,16 +6056,16 @@
         <v>0</v>
       </c>
       <c r="O68" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P68" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q68" s="2"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>353</v>
@@ -6103,16 +6103,16 @@
         <v>0</v>
       </c>
       <c r="O69" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q69" s="2"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>357</v>
@@ -6150,16 +6150,16 @@
         <v>0</v>
       </c>
       <c r="O70" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P70" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q70" s="2"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>362</v>
@@ -6197,16 +6197,16 @@
         <v>0</v>
       </c>
       <c r="O71" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P71" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q71" s="2"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>366</v>
@@ -6244,16 +6244,16 @@
         <v>0</v>
       </c>
       <c r="O72" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P72" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q72" s="2"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>370</v>
@@ -6291,16 +6291,16 @@
         <v>0</v>
       </c>
       <c r="O73" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P73" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q73" s="2"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>374</v>
@@ -6338,16 +6338,16 @@
         <v>0</v>
       </c>
       <c r="O74" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P74" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q74" s="2"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>378</v>
@@ -6385,16 +6385,16 @@
         <v>0</v>
       </c>
       <c r="O75" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P75" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q75" s="2"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>383</v>
@@ -6432,16 +6432,16 @@
         <v>0</v>
       </c>
       <c r="O76" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P76" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q76" s="2"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>388</v>
@@ -6479,16 +6479,16 @@
         <v>0</v>
       </c>
       <c r="O77" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P77" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q77" s="2"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>393</v>
@@ -6526,16 +6526,16 @@
         <v>0</v>
       </c>
       <c r="O78" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q78" s="2"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>398</v>
@@ -6573,16 +6573,16 @@
         <v>0</v>
       </c>
       <c r="O79" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P79" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q79" s="2"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>403</v>
@@ -6620,16 +6620,16 @@
         <v>0</v>
       </c>
       <c r="O80" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P80" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q80" s="2"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>408</v>
@@ -6667,16 +6667,16 @@
         <v>0</v>
       </c>
       <c r="O81" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P81" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q81" s="2"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>413</v>
@@ -6714,16 +6714,16 @@
         <v>0</v>
       </c>
       <c r="O82" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P82" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q82" s="2"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>419</v>
@@ -6761,16 +6761,16 @@
         <v>0</v>
       </c>
       <c r="O83" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P83" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q83" s="2"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>424</v>
@@ -6808,16 +6808,16 @@
         <v>0</v>
       </c>
       <c r="O84" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P84" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q84" s="2"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>429</v>
@@ -6855,16 +6855,16 @@
         <v>0</v>
       </c>
       <c r="O85" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P85" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q85" s="2"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>433</v>
@@ -6902,16 +6902,16 @@
         <v>0</v>
       </c>
       <c r="O86" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P86" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q86" s="2"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>438</v>
@@ -6949,16 +6949,16 @@
         <v>0</v>
       </c>
       <c r="O87" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P87" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q87" s="2"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>443</v>
@@ -6996,16 +6996,16 @@
         <v>0</v>
       </c>
       <c r="O88" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P88" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q88" s="2"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>447</v>
@@ -7043,16 +7043,16 @@
         <v>0</v>
       </c>
       <c r="O89" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P89" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q89" s="2"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>451</v>
@@ -7090,16 +7090,16 @@
         <v>0</v>
       </c>
       <c r="O90" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P90" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q90" s="2"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>455</v>
@@ -7137,16 +7137,16 @@
         <v>0</v>
       </c>
       <c r="O91" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P91" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q91" s="2"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>459</v>
@@ -7184,16 +7184,16 @@
         <v>0</v>
       </c>
       <c r="O92" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P92" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q92" s="2"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>463</v>
@@ -7231,16 +7231,16 @@
         <v>0</v>
       </c>
       <c r="O93" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P93" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q93" s="2"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>468</v>
@@ -7278,16 +7278,16 @@
         <v>0</v>
       </c>
       <c r="O94" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P94" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q94" s="2"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>473</v>
@@ -7325,16 +7325,16 @@
         <v>0</v>
       </c>
       <c r="O95" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P95" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q95" s="2"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>478</v>
@@ -7372,16 +7372,16 @@
         <v>0</v>
       </c>
       <c r="O96" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P96" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q96" s="2"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>483</v>
@@ -7419,16 +7419,16 @@
         <v>0</v>
       </c>
       <c r="O97" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P97" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q97" s="2"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>488</v>
@@ -7466,16 +7466,16 @@
         <v>0</v>
       </c>
       <c r="O98" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P98" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q98" s="2"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>492</v>
@@ -7513,16 +7513,16 @@
         <v>0</v>
       </c>
       <c r="O99" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P99" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q99" s="2"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>497</v>
@@ -7560,16 +7560,16 @@
         <v>0</v>
       </c>
       <c r="O100" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P100" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q100" s="2"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>501</v>
@@ -7607,16 +7607,16 @@
         <v>0</v>
       </c>
       <c r="O101" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P101" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q101" s="2"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>505</v>
@@ -7654,16 +7654,16 @@
         <v>0</v>
       </c>
       <c r="O102" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P102" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P102" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q102" s="2"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>509</v>
@@ -7701,16 +7701,16 @@
         <v>0</v>
       </c>
       <c r="O103" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P103" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P103" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q103" s="2"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>514</v>
@@ -7748,16 +7748,16 @@
         <v>0</v>
       </c>
       <c r="O104" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P104" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P104" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q104" s="2"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>518</v>
@@ -7795,16 +7795,16 @@
         <v>0</v>
       </c>
       <c r="O105" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P105" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P105" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q105" s="2"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>523</v>
@@ -7842,16 +7842,16 @@
         <v>0</v>
       </c>
       <c r="O106" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P106" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P106" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q106" s="2"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>528</v>
@@ -7889,16 +7889,16 @@
         <v>0</v>
       </c>
       <c r="O107" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P107" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P107" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q107" s="2"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>532</v>
@@ -7936,16 +7936,16 @@
         <v>0</v>
       </c>
       <c r="O108" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P108" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P108" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q108" s="2"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>536</v>
@@ -7983,16 +7983,16 @@
         <v>0</v>
       </c>
       <c r="O109" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P109" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P109" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q109" s="2"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>542</v>
@@ -8030,16 +8030,16 @@
         <v>0</v>
       </c>
       <c r="O110" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P110" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P110" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q110" s="2"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>547</v>
@@ -8077,16 +8077,16 @@
         <v>0</v>
       </c>
       <c r="O111" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P111" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q111" s="2"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>551</v>
@@ -8124,16 +8124,16 @@
         <v>0</v>
       </c>
       <c r="O112" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P112" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q112" s="2"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>555</v>
@@ -8171,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="O113" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P113" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q113" s="2"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>560</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="O114" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P114" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P114" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q114" s="2"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>564</v>
@@ -8265,16 +8265,16 @@
         <v>0</v>
       </c>
       <c r="O115" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P115" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P115" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q115" s="2"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>569</v>
@@ -8312,16 +8312,16 @@
         <v>0</v>
       </c>
       <c r="O116" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P116" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q116" s="2"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>573</v>
@@ -8359,16 +8359,16 @@
         <v>0</v>
       </c>
       <c r="O117" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P117" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P117" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q117" s="2"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>577</v>
@@ -8406,16 +8406,16 @@
         <v>0</v>
       </c>
       <c r="O118" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P118" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P118" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q118" s="2"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>581</v>
@@ -8453,16 +8453,16 @@
         <v>0</v>
       </c>
       <c r="O119" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P119" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P119" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q119" s="2"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>585</v>
@@ -8500,16 +8500,16 @@
         <v>0</v>
       </c>
       <c r="O120" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P120" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P120" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q120" s="2"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>589</v>
@@ -8547,16 +8547,16 @@
         <v>0</v>
       </c>
       <c r="O121" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P121" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P121" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q121" s="2"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>593</v>
@@ -8594,16 +8594,16 @@
         <v>0</v>
       </c>
       <c r="O122" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P122" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P122" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q122" s="2"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>597</v>
@@ -8641,16 +8641,16 @@
         <v>0</v>
       </c>
       <c r="O123" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P123" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P123" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q123" s="2"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>601</v>
@@ -8688,16 +8688,16 @@
         <v>0</v>
       </c>
       <c r="O124" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P124" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P124" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q124" s="2"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>606</v>
@@ -8735,16 +8735,16 @@
         <v>0</v>
       </c>
       <c r="O125" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P125" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P125" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q125" s="2"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>610</v>
@@ -8782,16 +8782,16 @@
         <v>0</v>
       </c>
       <c r="O126" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P126" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P126" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q126" s="2"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>615</v>
@@ -8829,16 +8829,16 @@
         <v>0</v>
       </c>
       <c r="O127" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P127" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P127" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q127" s="2"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>620</v>
@@ -8876,16 +8876,16 @@
         <v>0</v>
       </c>
       <c r="O128" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P128" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P128" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q128" s="2"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>625</v>
@@ -8923,16 +8923,16 @@
         <v>0</v>
       </c>
       <c r="O129" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P129" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P129" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q129" s="2"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>630</v>
@@ -8970,16 +8970,16 @@
         <v>0</v>
       </c>
       <c r="O130" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P130" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P130" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q130" s="2"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>635</v>
@@ -9017,16 +9017,16 @@
         <v>0</v>
       </c>
       <c r="O131" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P131" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P131" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q131" s="2"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>640</v>
@@ -9064,16 +9064,16 @@
         <v>0</v>
       </c>
       <c r="O132" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P132" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P132" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q132" s="2"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>645</v>
@@ -9111,16 +9111,16 @@
         <v>0</v>
       </c>
       <c r="O133" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P133" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q133" s="2"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>649</v>
@@ -9158,16 +9158,16 @@
         <v>0</v>
       </c>
       <c r="O134" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P134" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P134" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q134" s="2"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>653</v>
@@ -9205,16 +9205,16 @@
         <v>0</v>
       </c>
       <c r="O135" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P135" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P135" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q135" s="2"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>657</v>
@@ -9256,16 +9256,16 @@
         <v>0</v>
       </c>
       <c r="O136" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P136" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P136" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q136" s="2"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>661</v>
@@ -9303,16 +9303,16 @@
         <v>0</v>
       </c>
       <c r="O137" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P137" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P137" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q137" s="2"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>665</v>
@@ -9350,16 +9350,16 @@
         <v>0</v>
       </c>
       <c r="O138" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P138" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P138" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q138" s="2"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>669</v>
@@ -9397,16 +9397,16 @@
         <v>0</v>
       </c>
       <c r="O139" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P139" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P139" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q139" s="2"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>673</v>
@@ -9444,16 +9444,16 @@
         <v>0</v>
       </c>
       <c r="O140" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P140" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P140" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q140" s="2"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>677</v>
@@ -9491,16 +9491,16 @@
         <v>0</v>
       </c>
       <c r="O141" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P141" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P141" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q141" s="2"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>681</v>
@@ -9538,16 +9538,16 @@
         <v>0</v>
       </c>
       <c r="O142" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P142" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P142" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q142" s="2"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>685</v>
@@ -9585,16 +9585,16 @@
         <v>0</v>
       </c>
       <c r="O143" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P143" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P143" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q143" s="2"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>689</v>
@@ -9632,16 +9632,16 @@
         <v>0</v>
       </c>
       <c r="O144" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P144" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P144" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q144" s="2"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>693</v>
@@ -9679,16 +9679,16 @@
         <v>0</v>
       </c>
       <c r="O145" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P145" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P145" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q145" s="2"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>697</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="O146" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P146" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P146" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q146" s="2"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>701</v>
@@ -9773,16 +9773,16 @@
         <v>0</v>
       </c>
       <c r="O147" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P147" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P147" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q147" s="2"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>706</v>
@@ -9820,16 +9820,16 @@
         <v>0</v>
       </c>
       <c r="O148" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P148" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P148" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q148" s="2"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>710</v>
@@ -9867,16 +9867,16 @@
         <v>0</v>
       </c>
       <c r="O149" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P149" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P149" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q149" s="2"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>714</v>
@@ -9914,16 +9914,16 @@
         <v>0</v>
       </c>
       <c r="O150" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P150" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P150" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q150" s="2"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>718</v>
@@ -9961,16 +9961,16 @@
         <v>0</v>
       </c>
       <c r="O151" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P151" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P151" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q151" s="2"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>722</v>
@@ -10008,16 +10008,16 @@
         <v>0</v>
       </c>
       <c r="O152" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P152" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P152" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q152" s="2"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>727</v>
@@ -10055,16 +10055,16 @@
         <v>0</v>
       </c>
       <c r="O153" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P153" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P153" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q153" s="2"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>731</v>
@@ -10102,16 +10102,16 @@
         <v>0</v>
       </c>
       <c r="O154" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P154" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P154" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q154" s="2"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>735</v>
@@ -10149,16 +10149,16 @@
         <v>0</v>
       </c>
       <c r="O155" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P155" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P155" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q155" s="2"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>739</v>
@@ -10196,10 +10196,10 @@
         <v>0</v>
       </c>
       <c r="O156" s="2" t="s">
+        <v>758</v>
+      </c>
+      <c r="P156" s="2" t="s">
         <v>759</v>
-      </c>
-      <c r="P156" s="2" t="s">
-        <v>760</v>
       </c>
       <c r="Q156" s="2"/>
     </row>
